--- a/tests/Metrics.UnitTests/TestsData/Metrics/MetricsSample.xlsx
+++ b/tests/Metrics.UnitTests/TestsData/Metrics/MetricsSample.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -429,6 +429,7 @@
         <v>2</v>
       </c>
       <c r="G2">
+        <f t="shared" ref="G2:G5" si="0">SUM(B2:E2)</f>
         <v>13</v>
       </c>
     </row>
@@ -449,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="0">SUM(B3:E3)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -562,7 +563,7 @@
         <v>0.61538461538461531</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:H9" si="5">2*C7*C8/(C7+C8)</f>
+        <f t="shared" ref="C9:G9" si="5">2*C7*C8/(C7+C8)</f>
         <v>0.54545454545454541</v>
       </c>
       <c r="D9">

--- a/tests/Metrics.UnitTests/TestsData/Metrics/MetricsSample.xlsx
+++ b/tests/Metrics.UnitTests/TestsData/Metrics/MetricsSample.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Classification Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Precision Recall Curve" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>TP</t>
   </si>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>Macro</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>Base Half Sum</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Trapezoid Area</t>
   </si>
 </sst>
 </file>
@@ -97,6 +121,159 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Precision Recall Curve'!$E$8:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Precision Recall Curve'!$E$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:dLbls/>
+        <c:axId val="50225536"/>
+        <c:axId val="50220416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50225536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50220416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50220416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50225536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -386,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -627,13 +804,318 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <v>0.5</v>
+      </c>
+      <c r="G1">
+        <v>0.7</v>
+      </c>
+      <c r="H1">
+        <v>0.8</v>
+      </c>
+      <c r="I1">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>SUM(F2:I2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>SUM(F3:I3)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0.8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f>SUM(F4:I4)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>SUM(F5:I5)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:I7" si="0">F2/(F2+F3)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8:I8" si="1">F2/(F2+F4)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.7</v>
+      </c>
+      <c r="H9">
+        <v>0.8</v>
+      </c>
+      <c r="I9">
+        <v>0.9</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <f>E8-F8</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="G11">
+        <f>F8-G8</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ref="H11:J11" si="2">G8-H8</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12">
+        <f>(E7+F7)/2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G12">
+        <f>(F7+G7)/2</f>
+        <v>0.58333333333333326</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ref="H12:J12" si="3">(G7+H7)/2</f>
+        <v>0.75</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <f>F11*F12</f>
+        <v>0.11111111111111112</v>
+      </c>
+      <c r="G13">
+        <f>G11*G12</f>
+        <v>0.19444444444444442</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:J13" si="4">H11*H12</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K13">
+        <f>SUM(F13:J13)</f>
+        <v>0.63888888888888884</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
